--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\visha\OneDrive\Desktop\Assurity\Combined\NUIX_SDET_AssignmentDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98B8A57-1CB2-49B1-A0F5-96AD9311107D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1C466A-2C3C-4F2C-BCC9-B16C1C12C6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC89DFA7-34EF-4C30-B2D5-34F5FEE94B79}"/>
   </bookViews>
@@ -404,7 +404,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB218BB-A1D6-43D6-B87F-A5ED6C59ACEE}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
